--- a/mbs-perturbation/bottleneck/elm/bottleneck_elm_rbf_linf_results.xlsx
+++ b/mbs-perturbation/bottleneck/elm/bottleneck_elm_rbf_linf_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9102564102564102</v>
+        <v>0.9107981220657277</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4860272747596691</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.92018779342723</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4741512345679012</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9184549356223176</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5277914412198722</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8927038626609443</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5132692307692308</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9613733905579399</v>
+        <v>0.9198113207547169</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5007440476190477</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9211731044349071</v>
+        <v>0.9199707680042518</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5003966457871443</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
